--- a/Industry/201612-201907/HKD/MN/Analysis_53_9.3 - Parts_HKD__MN.xlsx
+++ b/Industry/201612-201907/HKD/MN/Analysis_53_9.3 - Parts_HKD__MN.xlsx
@@ -9,25 +9,28 @@
   <sheets>
     <sheet name="table1" sheetId="1" r:id="rId1"/>
     <sheet name="TXbycty" sheetId="2" r:id="rId2"/>
-    <sheet name="TXbyEU" sheetId="3" r:id="rId3"/>
-    <sheet name="TXbyAsean" sheetId="4" r:id="rId4"/>
-    <sheet name="TXbyAsia" sheetId="5" r:id="rId5"/>
-    <sheet name="IMbyctyasOrigin" sheetId="6" r:id="rId6"/>
-    <sheet name="IMbyctyasOrigin_Q" sheetId="7" r:id="rId7"/>
-    <sheet name="IMbyEuropeasOrigin" sheetId="8" r:id="rId8"/>
-    <sheet name="TXbyproduct" sheetId="9" r:id="rId9"/>
-    <sheet name="DXbycty" sheetId="10" r:id="rId10"/>
-    <sheet name="DXbyEU" sheetId="11" r:id="rId11"/>
-    <sheet name="DXbyAsean" sheetId="12" r:id="rId12"/>
-    <sheet name="DXbyAsia" sheetId="13" r:id="rId13"/>
-    <sheet name="DXbyproduct" sheetId="14" r:id="rId14"/>
+    <sheet name="TXbycty_Q" sheetId="3" r:id="rId3"/>
+    <sheet name="TXbyEU" sheetId="4" r:id="rId4"/>
+    <sheet name="TXbyAsean" sheetId="5" r:id="rId5"/>
+    <sheet name="TXbyAsia" sheetId="6" r:id="rId6"/>
+    <sheet name="IMbyctyasOrigin" sheetId="7" r:id="rId7"/>
+    <sheet name="IMbyctyasOrigin_Q" sheetId="8" r:id="rId8"/>
+    <sheet name="IMbyEuropeasOrigin" sheetId="9" r:id="rId9"/>
+    <sheet name="TXbyproduct" sheetId="10" r:id="rId10"/>
+    <sheet name="DXbycty" sheetId="11" r:id="rId11"/>
+    <sheet name="DXbycty_Q" sheetId="12" r:id="rId12"/>
+    <sheet name="DXbyEU" sheetId="13" r:id="rId13"/>
+    <sheet name="DXbyAsean" sheetId="14" r:id="rId14"/>
+    <sheet name="DXbyAsia" sheetId="15" r:id="rId15"/>
+    <sheet name="DXbyproduct" sheetId="16" r:id="rId16"/>
+    <sheet name="RXbycty_Q" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="65">
   <si>
     <t>201612</t>
   </si>
@@ -53,6 +56,9 @@
     <t>201907_% CHG</t>
   </si>
   <si>
+    <t>HKD MN</t>
+  </si>
+  <si>
     <t>Domestic Exports</t>
   </si>
   <si>
@@ -66,6 +72,15 @@
   </si>
   <si>
     <t>Imports</t>
+  </si>
+  <si>
+    <t>Total Exports Quantity</t>
+  </si>
+  <si>
+    <t>Domestic Exports Quantity</t>
+  </si>
+  <si>
+    <t>Re-exports Quantity</t>
   </si>
   <si>
     <t>Imports by Origin Quantity</t>
@@ -87,9 +102,6 @@
   </si>
   <si>
     <t>201907_% Share of overall TX</t>
-  </si>
-  <si>
-    <t>HKD MN</t>
   </si>
   <si>
     <t>All individual countries</t>
@@ -570,13 +582,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,7 +619,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -624,7 +639,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>12.323</v>
@@ -653,7 +668,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>11.645</v>
@@ -682,7 +697,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>12.323</v>
@@ -711,7 +726,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>7.869</v>
@@ -740,7 +755,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -755,6 +770,66 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>0</v>
       </c>
     </row>
@@ -764,6 +839,160 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2">
+        <v>12.323</v>
+      </c>
+      <c r="C2">
+        <v>17.599</v>
+      </c>
+      <c r="D2">
+        <v>42.814</v>
+      </c>
+      <c r="E2">
+        <v>23.113</v>
+      </c>
+      <c r="F2">
+        <v>100.478</v>
+      </c>
+      <c r="G2">
+        <v>470.948</v>
+      </c>
+      <c r="H2">
+        <v>145.59</v>
+      </c>
+      <c r="I2">
+        <v>529.895</v>
+      </c>
+      <c r="J2">
+        <v>299.103</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>12.323</v>
+      </c>
+      <c r="C3">
+        <v>17.599</v>
+      </c>
+      <c r="D3">
+        <v>42.814</v>
+      </c>
+      <c r="E3">
+        <v>23.113</v>
+      </c>
+      <c r="F3">
+        <v>100.478</v>
+      </c>
+      <c r="G3">
+        <v>470.948</v>
+      </c>
+      <c r="H3">
+        <v>145.59</v>
+      </c>
+      <c r="I3">
+        <v>529.895</v>
+      </c>
+      <c r="J3">
+        <v>299.103</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+      <c r="M3">
+        <v>100</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+      <c r="O3">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G28"/>
   <sheetViews>
@@ -773,7 +1002,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -791,12 +1020,12 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -813,7 +1042,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -836,7 +1065,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -859,7 +1088,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -882,7 +1111,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -905,7 +1134,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -919,7 +1148,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -930,7 +1159,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -953,7 +1182,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -976,7 +1205,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -999,7 +1228,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1022,7 +1251,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1045,7 +1274,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1068,7 +1297,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1091,7 +1320,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1102,7 +1331,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1113,7 +1342,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1124,7 +1353,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1138,7 +1367,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1149,7 +1378,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1160,7 +1389,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1171,7 +1400,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1182,7 +1411,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1199,7 +1428,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1210,7 +1439,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1224,7 +1453,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1235,7 +1464,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1258,7 +1487,502 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -1268,7 +1992,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1286,12 +2010,12 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1314,7 +2038,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1337,7 +2061,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1360,7 +2084,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1383,7 +2107,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1394,7 +2118,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1405,7 +2129,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1419,7 +2143,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1430,7 +2154,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1441,7 +2165,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1464,7 +2188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -1474,7 +2198,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1492,12 +2216,12 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1514,7 +2238,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1537,7 +2261,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1560,7 +2284,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1583,7 +2307,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1594,7 +2318,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1605,7 +2329,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1622,7 +2346,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1639,7 +2363,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -1649,7 +2373,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1667,12 +2391,12 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1689,7 +2413,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1712,7 +2436,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1723,7 +2447,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1746,7 +2470,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1769,7 +2493,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1792,7 +2516,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1815,7 +2539,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1838,7 +2562,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1849,7 +2573,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1860,7 +2584,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1871,7 +2595,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1888,7 +2612,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1905,7 +2629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1915,7 +2639,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1933,12 +2657,12 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1961,7 +2685,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1979,6 +2703,501 @@
         <v>0</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="G28">
         <v>0</v>
       </c>
     </row>
@@ -1997,7 +3216,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2024,27 +3243,27 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>12.323</v>
@@ -2091,7 +3310,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>8.731999999999999</v>
@@ -2138,7 +3357,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>0.317</v>
@@ -2185,7 +3404,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>0.045</v>
@@ -2232,7 +3451,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -2244,7 +3463,7 @@
         <v>2.605</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J6">
         <v>2.605</v>
@@ -2261,7 +3480,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>1.769</v>
@@ -2308,7 +3527,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F8">
         <v>0.166</v>
@@ -2328,7 +3547,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>0.351</v>
@@ -2342,7 +3561,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>0.133</v>
@@ -2389,7 +3608,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>0.154</v>
@@ -2436,7 +3655,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>0.118</v>
@@ -2483,7 +3702,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>0.112</v>
@@ -2530,7 +3749,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>0.146</v>
@@ -2577,7 +3796,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>0.202</v>
@@ -2624,7 +3843,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>0.007</v>
@@ -2644,7 +3863,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F17">
         <v>0.013</v>
@@ -2658,7 +3877,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C18">
         <v>0.053</v>
@@ -2675,7 +3894,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2684,7 +3903,7 @@
         <v>0.052</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2701,7 +3920,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2715,7 +3934,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F21">
         <v>0.44</v>
@@ -2729,7 +3948,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>0.027</v>
@@ -2749,7 +3968,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>0.262</v>
@@ -2769,7 +3988,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>0.043</v>
@@ -2804,7 +4023,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>0.158</v>
@@ -2824,7 +4043,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>0.035</v>
@@ -2850,7 +4069,7 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2864,7 +4083,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>0.06</v>
@@ -2909,6 +4128,501 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O11"/>
   <sheetViews>
@@ -2918,7 +4632,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2945,27 +4659,27 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B2">
         <v>0.577</v>
@@ -3012,7 +4726,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>0.045</v>
@@ -3059,7 +4773,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>0.112</v>
@@ -3106,7 +4820,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>0.202</v>
@@ -3153,7 +4867,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F6">
         <v>0.013</v>
@@ -3167,7 +4881,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>0.053</v>
@@ -3184,7 +4898,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3193,7 +4907,7 @@
         <v>0.052</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3210,7 +4924,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3224,7 +4938,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0.158</v>
@@ -3244,7 +4958,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0.06</v>
@@ -3288,7 +5002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -3298,7 +5012,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3325,27 +5039,27 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B2">
         <v>0.804</v>
@@ -3392,7 +5106,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>0.317</v>
@@ -3439,7 +5153,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3451,7 +5165,7 @@
         <v>2.605</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J4">
         <v>2.605</v>
@@ -3468,7 +5182,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>0.146</v>
@@ -3515,7 +5229,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F6">
         <v>0.44</v>
@@ -3529,7 +5243,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>0.262</v>
@@ -3549,7 +5263,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>0.043</v>
@@ -3584,7 +5298,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0.035</v>
@@ -3613,7 +5327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O14"/>
   <sheetViews>
@@ -3623,7 +5337,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3650,27 +5364,27 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B2">
         <v>2.852</v>
@@ -3717,7 +5431,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>0.317</v>
@@ -3764,7 +5478,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3776,7 +5490,7 @@
         <v>2.605</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J4">
         <v>2.605</v>
@@ -3793,7 +5507,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>1.769</v>
@@ -3840,7 +5554,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H6">
         <v>0.351</v>
@@ -3854,7 +5568,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <v>0.133</v>
@@ -3901,7 +5615,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B8">
         <v>0.118</v>
@@ -3948,7 +5662,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B9">
         <v>0.146</v>
@@ -3995,7 +5709,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F10">
         <v>0.44</v>
@@ -4009,7 +5723,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>0.027</v>
@@ -4029,7 +5743,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B12">
         <v>0.262</v>
@@ -4049,7 +5763,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B13">
         <v>0.043</v>
@@ -4084,7 +5798,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B14">
         <v>0.035</v>
@@ -4113,7 +5827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O18"/>
   <sheetViews>
@@ -4123,7 +5837,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4150,27 +5864,27 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>7.869</v>
@@ -4217,7 +5931,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>5.531</v>
@@ -4264,7 +5978,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>1.161</v>
@@ -4311,7 +6025,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>0.213</v>
@@ -4358,7 +6072,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>0.056</v>
@@ -4396,7 +6110,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B7">
         <v>0.068</v>
@@ -4443,7 +6157,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>0.024</v>
@@ -4490,7 +6204,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0.311</v>
@@ -4513,7 +6227,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>0.067</v>
@@ -4539,7 +6253,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B11">
         <v>0.269</v>
@@ -4559,7 +6273,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B12">
         <v>0.036</v>
@@ -4579,7 +6293,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>0.066</v>
@@ -4611,7 +6325,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>0.003</v>
@@ -4652,7 +6366,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B15">
         <v>0.002</v>
@@ -4672,7 +6386,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>0.01</v>
@@ -4692,7 +6406,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B17">
         <v>0.478</v>
@@ -4712,7 +6426,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B18">
         <v>0.004</v>
@@ -4735,7 +6449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -4745,7 +6459,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4763,12 +6477,12 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4788,7 +6502,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4811,7 +6525,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4834,7 +6548,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4857,7 +6571,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4880,7 +6594,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4903,7 +6617,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4926,7 +6640,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -4940,7 +6654,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4954,7 +6668,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -4965,7 +6679,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -4976,7 +6690,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -4993,7 +6707,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -5013,7 +6727,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -5024,7 +6738,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -5035,7 +6749,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -5046,7 +6760,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -5060,7 +6774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O11"/>
   <sheetViews>
@@ -5070,7 +6784,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -5097,27 +6811,27 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B2">
         <v>2.301</v>
@@ -5164,7 +6878,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>1.161</v>
@@ -5211,7 +6925,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>0.213</v>
@@ -5258,7 +6972,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>0.068</v>
@@ -5305,7 +7019,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0.067</v>
@@ -5331,7 +7045,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <v>0.269</v>
@@ -5351,7 +7065,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0.036</v>
@@ -5371,7 +7085,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B9">
         <v>0.002</v>
@@ -5391,7 +7105,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0.478</v>
@@ -5411,7 +7125,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0.004</v>
@@ -5427,160 +7141,6 @@
       </c>
       <c r="K11">
         <v>0.054</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2">
-        <v>12.323</v>
-      </c>
-      <c r="C2">
-        <v>17.599</v>
-      </c>
-      <c r="D2">
-        <v>42.814</v>
-      </c>
-      <c r="E2">
-        <v>23.113</v>
-      </c>
-      <c r="F2">
-        <v>100.478</v>
-      </c>
-      <c r="G2">
-        <v>470.948</v>
-      </c>
-      <c r="H2">
-        <v>145.59</v>
-      </c>
-      <c r="I2">
-        <v>529.895</v>
-      </c>
-      <c r="J2">
-        <v>299.103</v>
-      </c>
-      <c r="K2">
-        <v>100</v>
-      </c>
-      <c r="L2">
-        <v>100</v>
-      </c>
-      <c r="M2">
-        <v>100</v>
-      </c>
-      <c r="N2">
-        <v>100</v>
-      </c>
-      <c r="O2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>12.323</v>
-      </c>
-      <c r="C3">
-        <v>17.599</v>
-      </c>
-      <c r="D3">
-        <v>42.814</v>
-      </c>
-      <c r="E3">
-        <v>23.113</v>
-      </c>
-      <c r="F3">
-        <v>100.478</v>
-      </c>
-      <c r="G3">
-        <v>470.948</v>
-      </c>
-      <c r="H3">
-        <v>145.59</v>
-      </c>
-      <c r="I3">
-        <v>529.895</v>
-      </c>
-      <c r="J3">
-        <v>299.103</v>
-      </c>
-      <c r="K3">
-        <v>100</v>
-      </c>
-      <c r="L3">
-        <v>100</v>
-      </c>
-      <c r="M3">
-        <v>100</v>
-      </c>
-      <c r="N3">
-        <v>100</v>
-      </c>
-      <c r="O3">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
